--- a/image/verificationresult.xlsx
+++ b/image/verificationresult.xlsx
@@ -933,43 +933,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="170.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="170.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.1484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.0625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.08203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="52.296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/verificationresult.xlsx
+++ b/image/verificationresult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="250">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -343,10 +343,6 @@
   </si>
   <si>
     <t>VerificationResult.targetLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The fhirpath location(s) within the resource that was validated</t>
@@ -933,43 +929,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="170.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="170.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.08203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="52.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.1484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2156,13 +2152,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2236,7 +2232,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2259,13 +2255,13 @@
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2295,11 +2291,11 @@
         <v>69</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2339,7 +2335,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2365,10 +2361,10 @@
         <v>65</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2395,14 +2391,14 @@
         <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>38</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>46</v>
@@ -2442,7 +2438,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2465,13 +2461,13 @@
         <v>47</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2522,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2545,7 +2541,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2568,13 +2564,13 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2604,11 +2600,11 @@
         <v>69</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2625,7 +2621,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2648,7 +2644,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2671,13 +2667,13 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2704,14 +2700,14 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2728,7 +2724,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2751,7 +2747,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2774,13 +2770,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2831,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2854,7 +2850,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2877,13 +2873,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2934,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2980,13 +2976,13 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3037,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3060,7 +3056,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3083,13 +3079,13 @@
         <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3119,11 +3115,11 @@
         <v>69</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3163,7 +3159,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3186,13 +3182,13 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3243,7 +3239,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3255,7 +3251,7 @@
         <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>38</v>
@@ -3266,7 +3262,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3289,13 +3285,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3346,30 +3342,30 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3398,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>94</v>
@@ -3451,7 +3447,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3469,16 +3465,16 @@
         <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3500,10 +3496,10 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>94</v>
@@ -3558,7 +3554,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3581,7 +3577,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3604,13 +3600,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3661,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3676,7 +3672,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3684,7 +3680,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3707,13 +3703,13 @@
         <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3740,14 +3736,14 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
@@ -3764,7 +3760,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3787,7 +3783,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3810,13 +3806,13 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3843,14 +3839,14 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3890,7 +3886,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3913,13 +3909,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3949,11 +3945,11 @@
         <v>69</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
       </c>
@@ -3970,7 +3966,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -3993,7 +3989,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4016,13 +4012,13 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4073,7 +4069,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4096,7 +4092,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4119,13 +4115,13 @@
         <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4155,11 +4151,11 @@
         <v>69</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4199,7 +4195,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4222,13 +4218,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4258,11 +4254,11 @@
         <v>69</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4279,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4302,7 +4298,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4325,13 +4321,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4382,7 +4378,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4394,7 +4390,7 @@
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>38</v>
@@ -4405,7 +4401,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4428,13 +4424,13 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4485,30 +4481,30 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4537,7 +4533,7 @@
         <v>92</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>94</v>
@@ -4590,7 +4586,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4608,16 +4604,16 @@
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -4639,10 +4635,10 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>94</v>
@@ -4697,7 +4693,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4720,7 +4716,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4743,13 +4739,13 @@
         <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4800,7 +4796,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4823,7 +4819,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4846,13 +4842,13 @@
         <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4903,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -4926,7 +4922,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4949,13 +4945,13 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4982,14 +4978,14 @@
         <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>38</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5052,13 +5048,13 @@
         <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5109,7 +5105,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5155,13 +5151,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5212,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5258,13 +5254,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5315,7 +5311,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5361,13 +5357,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5418,7 +5414,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5464,13 +5460,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5521,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5544,7 +5540,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5567,13 +5563,13 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5624,7 +5620,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5636,7 +5632,7 @@
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -5647,7 +5643,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5670,13 +5666,13 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5727,30 +5723,30 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5779,7 +5775,7 @@
         <v>92</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>94</v>
@@ -5832,7 +5828,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5850,16 +5846,16 @@
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -5881,10 +5877,10 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>94</v>
@@ -5939,7 +5935,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -5962,7 +5958,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5985,13 +5981,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6042,7 +6038,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>46</v>
@@ -6065,7 +6061,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6088,13 +6084,13 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6145,7 +6141,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6168,7 +6164,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6191,13 +6187,13 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6248,7 +6244,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
